--- a/doc/AFES_DB Design.xlsx
+++ b/doc/AFES_DB Design.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="27840" windowHeight="12315"/>
+    <workbookView xWindow="0" yWindow="2775" windowWidth="27630" windowHeight="10770"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="72">
   <si>
     <t>USER</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -99,10 +99,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>OPERATOR/MANAGER/ADMIN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ADDRESS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -304,6 +300,35 @@
   </si>
   <si>
     <t>d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OPERATOR/MANAGER/ADMIN/NONE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE TABLE `USER` (
+  `USER_ID` varchar(32) NOT NULL ,
+  `USER_NAME` varchar(32) NOT NULL,
+  `PASSWORD` varchar(32) NOT NULL,
+  `PHONE_NO` varchar(32)  NOT NULL,
+  `USER_TYPE` varchar(16) NOT NULL,
+  `ADDRESS` varchar(128) NOT NULL,
+  `LOCALE` int(3) NOT NULL,
+  `EMAIL` varchar(32) NOT NULL,
+  `OPERATE_AMOUNT` FLOAT(20, 4) NOT NULL,
+  `ACTIVE_YN` varchar(32) NOT NULL,
+  `PARENT_ID` varchar(32) ,
+  PRIMARY KEY (`USER_ID`)
+) ENGINE=InnoDB AUTO_INCREMENT=3 DEFAULT CHARSET=utf8;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PASSWORD</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -376,7 +401,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -394,6 +419,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -689,10 +717,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X104"/>
+  <dimension ref="A1:X105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -734,477 +762,482 @@
     </row>
     <row r="5" spans="1:4">
       <c r="B5" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="B7" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="B8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="B9" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="B10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="B11" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="B12" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" t="s">
+      <c r="B13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="B14" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="B15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="B16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24">
-      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24">
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24">
+      <c r="A19" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24">
-      <c r="B19" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:24">
       <c r="B20" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:24">
-      <c r="A21" t="s">
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24">
+      <c r="A22" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:24">
-      <c r="B22" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:24">
       <c r="B23" t="s">
-        <v>26</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:24">
       <c r="B24" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:24">
       <c r="B25" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:24">
-      <c r="A26" t="s">
+      <c r="B26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24">
+      <c r="A27" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:24">
-      <c r="B27" s="4" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:24">
       <c r="B28" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:24">
       <c r="B29" s="4" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:24">
-      <c r="B30" s="4"/>
+      <c r="B30" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="31" spans="1:24">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
-      <c r="Q31" s="1"/>
-      <c r="R31" s="1"/>
-      <c r="S31" s="1"/>
-      <c r="T31" s="1"/>
-      <c r="U31" s="1"/>
-      <c r="V31" s="1"/>
-      <c r="W31" s="1"/>
-      <c r="X31" s="1"/>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" t="s">
+      <c r="B31" s="4"/>
+    </row>
+    <row r="32" spans="1:24">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+      <c r="T32" s="1"/>
+      <c r="U32" s="1"/>
+      <c r="V32" s="1"/>
+      <c r="W32" s="1"/>
+      <c r="X32" s="1"/>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
-      <c r="B34" t="s">
-        <v>30</v>
-      </c>
-    </row>
     <row r="35" spans="1:3">
-      <c r="B35" s="5" t="s">
-        <v>52</v>
+      <c r="B35" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="B36" t="s">
-        <v>49</v>
+      <c r="B36" s="5" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="B37" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="B38" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="B39" t="s">
-        <v>32</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="B40" t="s">
-        <v>38</v>
+        <v>31</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="B41" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="B42" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="B43" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="B44" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="B45" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="B46" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" t="s">
-        <v>53</v>
+      <c r="B47" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="B48" s="5" t="s">
+      <c r="A48" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="49" spans="1:4">
-      <c r="B49" t="s">
-        <v>30</v>
+      <c r="B49" s="5" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="B50" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="B51" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="B52" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="B53" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="B54" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="B55" t="s">
-        <v>64</v>
-      </c>
-      <c r="D55" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="B56" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" t="s">
+      <c r="D56" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="B57" t="s">
-        <v>41</v>
-      </c>
-      <c r="D57">
-        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="B58" t="s">
-        <v>42</v>
+        <v>40</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="B59" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="67" spans="1:24">
-      <c r="A67" s="1"/>
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-      <c r="F67" s="1"/>
-      <c r="G67" s="1"/>
-      <c r="H67" s="1"/>
-      <c r="I67" s="1"/>
-      <c r="J67" s="1"/>
-      <c r="K67" s="1"/>
-      <c r="L67" s="1"/>
-      <c r="M67" s="1"/>
-      <c r="N67" s="1"/>
-      <c r="O67" s="1"/>
-      <c r="P67" s="1"/>
-      <c r="Q67" s="1"/>
-      <c r="R67" s="1"/>
-      <c r="S67" s="1"/>
-      <c r="T67" s="1"/>
-      <c r="U67" s="1"/>
-      <c r="V67" s="1"/>
-      <c r="W67" s="1"/>
-      <c r="X67" s="1"/>
-    </row>
-    <row r="69" spans="1:24">
-      <c r="A69" t="s">
-        <v>51</v>
-      </c>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="B60" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="68" spans="1:24">
+      <c r="A68" s="1"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
+      <c r="M68" s="1"/>
+      <c r="N68" s="1"/>
+      <c r="O68" s="1"/>
+      <c r="P68" s="1"/>
+      <c r="Q68" s="1"/>
+      <c r="R68" s="1"/>
+      <c r="S68" s="1"/>
+      <c r="T68" s="1"/>
+      <c r="U68" s="1"/>
+      <c r="V68" s="1"/>
+      <c r="W68" s="1"/>
+      <c r="X68" s="1"/>
     </row>
     <row r="70" spans="1:24">
-      <c r="B70" s="4" t="s">
-        <v>30</v>
+      <c r="A70" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="71" spans="1:24">
-      <c r="B71" t="s">
-        <v>52</v>
+      <c r="B71" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="72" spans="1:24">
       <c r="B72" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="73" spans="1:24">
+      <c r="B73" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="74" spans="1:24" ht="14.25" customHeight="1">
+      <c r="B74" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="73" spans="1:24" ht="14.25" customHeight="1">
-      <c r="B73" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="74" spans="1:24">
-      <c r="B74" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="75" spans="1:24">
       <c r="B75" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="76" spans="1:24">
       <c r="B76" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="77" spans="1:24">
       <c r="B77" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="78" spans="1:24">
-      <c r="A78" t="s">
-        <v>54</v>
+      <c r="B78" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="79" spans="1:24">
-      <c r="B79" t="s">
-        <v>52</v>
+      <c r="A79" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="80" spans="1:24">
       <c r="B80" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="B81" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="B82" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="B83" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="B84" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="B85" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="B86" t="s">
-        <v>64</v>
-      </c>
-      <c r="D86" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="B87" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="88" spans="1:4">
-      <c r="A88" t="s">
+      <c r="D87" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
-      <c r="A90" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
-      <c r="A95" t="s">
+    <row r="91" spans="1:4">
+      <c r="A91" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
-      <c r="B96" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="B97" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="B98" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="B99" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2">
-      <c r="A101" t="s">
-        <v>44</v>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="B100" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="102" spans="1:2">
-      <c r="B102" t="s">
-        <v>13</v>
+      <c r="A102" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="B103" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="B104" t="s">
-        <v>47</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="B105" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1216,12 +1249,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="109.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="189">
+      <c r="A1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
